--- a/data/2024/ssg/6,16_DE-12.xlsx
+++ b/data/2024/ssg/6,16_DE-12.xlsx
@@ -916,7 +916,7 @@
     <t>1.1975 -</t>
   </si>
   <si>
-    <t>30</t>
+    <t>7;30</t>
   </si>
   <si>
     <t>1198041-2</t>
@@ -7115,7 +7115,7 @@
         <v>32</v>
       </c>
       <c r="X40" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="Y40" t="s">
         <v>300</v>
@@ -16423,13 +16423,13 @@
         <v>32</v>
       </c>
       <c r="U161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="V161" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W161" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="X161" t="s">
         <v>49</v>
